--- a/code/random_forest-outfiles/RFECV select 9 from 15 out of 18 - 120 estimators/RFECV select 9 from 15 out of 18 - 120 estimators.xlsx
+++ b/code/random_forest-outfiles/RFECV select 9 from 15 out of 18 - 120 estimators/RFECV select 9 from 15 out of 18 - 120 estimators.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Research-Spring2021\code\random_forest-outfiles\RFECV select 9 from 15 out of 18 - 120 estimators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7CD9700-6903-49F5-97C6-057D82CF7348}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8E8CFB-85D5-4EEE-A525-D0325F197323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,60 +105,6 @@
     <t>features</t>
   </si>
   <si>
-    <t>ALAND_ATOTAL_ratio_ranking</t>
-  </si>
-  <si>
-    <t>BB_g_m-2_ranking</t>
-  </si>
-  <si>
-    <t>C_g_m-2_ranking</t>
-  </si>
-  <si>
-    <t>DM_kg_m-2_ranking</t>
-  </si>
-  <si>
-    <t>GEOID_ranking</t>
-  </si>
-  <si>
-    <t>NPP_g_m-2_ranking</t>
-  </si>
-  <si>
-    <t>PDSI_ranking</t>
-  </si>
-  <si>
-    <t>Rh_g_m-2_ranking</t>
-  </si>
-  <si>
-    <t>SP01_ranking</t>
-  </si>
-  <si>
-    <t>YYYYMM_ranking</t>
-  </si>
-  <si>
-    <t>burned_frac_ranking</t>
-  </si>
-  <si>
-    <t>median_inc_ranking</t>
-  </si>
-  <si>
-    <t>month_ranking</t>
-  </si>
-  <si>
-    <t>pm25_ug_m-3_ranking</t>
-  </si>
-  <si>
-    <t>popuDensity_ALAND_km2_ranking</t>
-  </si>
-  <si>
-    <t>precip_in_ranking</t>
-  </si>
-  <si>
-    <t>smallf_frac_ranking</t>
-  </si>
-  <si>
-    <t>temp_F_ranking</t>
-  </si>
-  <si>
     <t>{'max_samples': 0.1, 'min_samples_leaf': 2, 'min_samples_split': 4, 'n_estimators': 120}</t>
   </si>
   <si>
@@ -211,6 +157,60 @@
   </si>
   <si>
     <t>added: year</t>
+  </si>
+  <si>
+    <t>ALAND_ATOTAL_ratio</t>
+  </si>
+  <si>
+    <t>BB_g_m-2</t>
+  </si>
+  <si>
+    <t>C_g_m-2</t>
+  </si>
+  <si>
+    <t>DM_kg_m-2</t>
+  </si>
+  <si>
+    <t>GEOID</t>
+  </si>
+  <si>
+    <t>NPP_g_m-2</t>
+  </si>
+  <si>
+    <t>PDSI</t>
+  </si>
+  <si>
+    <t>Rh_g_m-2</t>
+  </si>
+  <si>
+    <t>SP01</t>
+  </si>
+  <si>
+    <t>YYYYMM</t>
+  </si>
+  <si>
+    <t>burned_frac</t>
+  </si>
+  <si>
+    <t>median_inc</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>pm25_ug_m-3</t>
+  </si>
+  <si>
+    <t>popuDensity_ALAND_km2</t>
+  </si>
+  <si>
+    <t>precip_in</t>
+  </si>
+  <si>
+    <t>smallf_frac</t>
+  </si>
+  <si>
+    <t>temp_F</t>
   </si>
 </sst>
 </file>
@@ -694,12 +694,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -758,6 +755,950 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RFECV_RF_2021.04.21-15.58.40'!$Y$1:$AP$1</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>ALAND_ATOTAL_ratio</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BB_g_m-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C_g_m-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DM_kg_m-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>GEOID</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NPP_g_m-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PDSI</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Rh_g_m-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SP01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>YYYYMM</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>burned_frac</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>median_inc</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>month</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>pm25_ug_m-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>popuDensity_ALAND_km2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>precip_in</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>smallf_frac</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>temp_F</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RFECV_RF_2021.04.21-15.58.40'!$Y$16:$AP$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.4285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C02-4769-BB09-87370710740B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1575846272"/>
+        <c:axId val="1575847520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1575846272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1575847520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1575847520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1575846272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16FA0C1E-BA9B-43B3-B3B2-558AB2D54E04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1057,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX21"/>
+  <dimension ref="A1:AX23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10:AN10"/>
+    <sheetView tabSelected="1" topLeftCell="U16" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,58 +2084,58 @@
         <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="Z1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="AA1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="AB1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="AC1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AD1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="AE1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AF1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="AG1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AH1" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="AI1" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="AJ1" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="AK1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="AL1" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AM1" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="AN1" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="AO1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="AP1" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="AR1">
         <v>1</v>
@@ -1244,7 +2185,7 @@
         <v>120</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J2">
         <v>-0.33253279952678499</v>
@@ -1289,7 +2230,7 @@
         <v>9</v>
       </c>
       <c r="X2" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -1384,7 +2325,7 @@
         <v>120</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J3">
         <v>-0.33257228959673901</v>
@@ -1429,7 +2370,7 @@
         <v>10</v>
       </c>
       <c r="X3" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -1521,7 +2462,7 @@
         <v>120</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <v>-0.34138350305624499</v>
@@ -1566,7 +2507,7 @@
         <v>9</v>
       </c>
       <c r="X4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="Z4">
         <v>6</v>
@@ -1661,7 +2602,7 @@
         <v>120</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J5">
         <v>-0.40040376474387301</v>
@@ -1706,7 +2647,7 @@
         <v>9</v>
       </c>
       <c r="X5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="Y5">
         <v>3</v>
@@ -1801,7 +2742,7 @@
         <v>120</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J6">
         <v>-0.36173363642270201</v>
@@ -1846,7 +2787,7 @@
         <v>9</v>
       </c>
       <c r="X6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -1941,7 +2882,7 @@
         <v>120</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J7">
         <v>-0.36584057720128899</v>
@@ -1986,7 +2927,7 @@
         <v>9</v>
       </c>
       <c r="X7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -2081,7 +3022,7 @@
         <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J8">
         <v>-0.36459575415661299</v>
@@ -2126,7 +3067,7 @@
         <v>9</v>
       </c>
       <c r="X8" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -2221,7 +3162,7 @@
         <v>120</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J9">
         <v>-0.425099988003794</v>
@@ -2266,7 +3207,7 @@
         <v>9</v>
       </c>
       <c r="X9" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -2361,7 +3302,7 @@
         <v>120</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J10">
         <v>-0.48094091214407297</v>
@@ -2406,7 +3347,7 @@
         <v>10</v>
       </c>
       <c r="X10" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="Y10">
         <v>1</v>
@@ -2498,7 +3439,7 @@
         <v>120</v>
       </c>
       <c r="I11" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J11">
         <v>-0.47877157219653799</v>
@@ -2543,7 +3484,7 @@
         <v>9</v>
       </c>
       <c r="X11" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="Y11">
         <v>3</v>
@@ -2638,7 +3579,7 @@
         <v>120</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J12">
         <v>-0.48880279804258697</v>
@@ -2683,7 +3624,7 @@
         <v>10</v>
       </c>
       <c r="X12" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -2775,7 +3716,7 @@
         <v>120</v>
       </c>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J13">
         <v>-0.50105925033326504</v>
@@ -2820,7 +3761,7 @@
         <v>10</v>
       </c>
       <c r="X13" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="Y13">
         <v>1</v>
@@ -2912,7 +3853,7 @@
         <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="J14">
         <v>-0.56357114874598502</v>
@@ -2957,7 +3898,7 @@
         <v>10</v>
       </c>
       <c r="X14" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -3023,126 +3964,198 @@
         <v>0.57659338084892198</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="Y15">
-        <f t="shared" ref="Y15:AP15" si="0">SUM(Y2:Y14)</f>
-        <v>17</v>
-      </c>
-      <c r="Z15">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <f t="shared" ref="Y16:AP16" si="0">AVERAGE(Y2:Y8)</f>
+        <v>1.5</v>
+      </c>
+      <c r="Z16">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="AA15">
+        <v>6.1428571428571432</v>
+      </c>
+      <c r="AA16">
         <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="AB15">
+        <v>6</v>
+      </c>
+      <c r="AB16">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="AC15">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="AC16">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AD16">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="AE15">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AE16">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="AF15">
+        <v>1.4</v>
+      </c>
+      <c r="AF16">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="AG15">
+        <v>1</v>
+      </c>
+      <c r="AG16">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AH16">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AI16">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="AJ15">
+        <v>3.4285714285714284</v>
+      </c>
+      <c r="AJ16">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="AK15">
+        <v>1</v>
+      </c>
+      <c r="AK16">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AL16">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AN16">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="AO15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AO16">
         <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="AP15">
+        <v>4.2</v>
+      </c>
+      <c r="AP16">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="25:43" x14ac:dyDescent="0.25">
-      <c r="Z17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="25:43" x14ac:dyDescent="0.25">
-      <c r="Y18" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>57</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>57</v>
+      <c r="Y18">
+        <f t="shared" ref="Y18:AP18" si="1">SUM(Y2:Y14)</f>
+        <v>17</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AM18">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
     </row>
-    <row r="20" spans="25:43" ht="75" x14ac:dyDescent="0.25">
-      <c r="AH20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ20" s="1" t="s">
-        <v>59</v>
+    <row r="20" spans="25:43" x14ac:dyDescent="0.25">
+      <c r="Z20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="25:43" x14ac:dyDescent="0.25">
-      <c r="AH21" s="2"/>
+      <c r="Y21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="25:43" ht="75" x14ac:dyDescent="0.25">
+      <c r="AH23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ23" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AW14">
     <sortCondition ref="U2:U14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/code/random_forest-outfiles/RFECV select 9 from 15 out of 18 - 120 estimators/RFECV select 9 from 15 out of 18 - 120 estimators.xlsx
+++ b/code/random_forest-outfiles/RFECV select 9 from 15 out of 18 - 120 estimators/RFECV select 9 from 15 out of 18 - 120 estimators.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Research-Spring2021\code\random_forest-outfiles\RFECV select 9 from 15 out of 18 - 120 estimators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8E8CFB-85D5-4EEE-A525-D0325F197323}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C88324F-0676-42CA-823E-C6058A26A7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RFECV_RF_2021.04.21-15.58.40" sheetId="1" r:id="rId1"/>
@@ -1117,7 +1117,423 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RFECV_RF_2021.04.21-15.58.40'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_set_r2_score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RFECV_RF_2021.04.21-15.58.40'!$S$2:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.70197177033693803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70046807474001105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69867704109290396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67670042851267498</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67344034221895399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67261551966174005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67218773718236202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.648778049792057</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63040107640959997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62965837566696203</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.62811168579079102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.62163394863288002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57820263194773802</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RFECV_RF_2021.04.21-15.58.40'!$V$2:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.71360998009794097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71229883951470196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71032620652171696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.687788868487901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.68560664461408705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.684678454542337</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68492007508796005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66318831980442405</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64180415523965395</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.639517034584001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.63844255343352296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63124513755802203</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58667858058049405</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2214-415B-93FD-81B0829621E1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="616045296"/>
+        <c:axId val="616051952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="616045296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616051952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="616051952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="616045296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1660,6 +2076,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1693,6 +2625,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFE5DE9-282D-4B2C-A177-F08724D6E78D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1998,10 +2966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX23"/>
+  <dimension ref="A1:AW23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U16" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AQ14" sqref="AQ1:AW14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,7 +2978,7 @@
     <col min="24" max="24" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2137,29 +3105,29 @@
       <c r="AP1" t="s">
         <v>59</v>
       </c>
+      <c r="AQ1">
+        <v>1</v>
+      </c>
       <c r="AR1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW1">
-        <v>6</v>
-      </c>
-      <c r="AX1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>70.885944652557299</v>
       </c>
@@ -2277,29 +3245,29 @@
       <c r="AP2">
         <v>1</v>
       </c>
+      <c r="AQ2">
+        <v>0.70197177033693803</v>
+      </c>
       <c r="AR2">
-        <v>0.70197177033693803</v>
+        <v>0.70192546570118997</v>
       </c>
       <c r="AS2">
-        <v>0.70192546570118997</v>
+        <v>0.69936327741597704</v>
       </c>
       <c r="AT2">
-        <v>0.69936327741597704</v>
+        <v>0.697654409599752</v>
       </c>
       <c r="AU2">
-        <v>0.697654409599752</v>
+        <v>0.69688443267618405</v>
       </c>
       <c r="AV2">
-        <v>0.69688443267618405</v>
+        <v>0.69646525996205899</v>
       </c>
       <c r="AW2">
-        <v>0.69646525996205899</v>
-      </c>
-      <c r="AX2">
         <v>0.69651744283929495</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>79.541947817802395</v>
       </c>
@@ -2417,26 +3385,26 @@
       <c r="AP3">
         <v>1</v>
       </c>
+      <c r="AQ3">
+        <v>0.70046807474001105</v>
+      </c>
       <c r="AR3">
-        <v>0.70046807474001105</v>
+        <v>0.69786914984300896</v>
       </c>
       <c r="AS3">
-        <v>0.69786914984300896</v>
+        <v>0.69631663064307303</v>
       </c>
       <c r="AT3">
-        <v>0.69631663064307303</v>
+        <v>0.69563315162575601</v>
       </c>
       <c r="AU3">
-        <v>0.69563315162575601</v>
+        <v>0.695289667155368</v>
       </c>
       <c r="AV3">
-        <v>0.695289667155368</v>
-      </c>
-      <c r="AW3">
         <v>0.69526220923877102</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>74.401728153228703</v>
       </c>
@@ -2554,29 +3522,29 @@
       <c r="AP4">
         <v>1</v>
       </c>
+      <c r="AQ4">
+        <v>0.69905832505799503</v>
+      </c>
       <c r="AR4">
-        <v>0.69905832505799503</v>
+        <v>0.69599575068836705</v>
       </c>
       <c r="AS4">
-        <v>0.69599575068836705</v>
+        <v>0.69446515463884295</v>
       </c>
       <c r="AT4">
-        <v>0.69446515463884295</v>
+        <v>0.69365845651164904</v>
       </c>
       <c r="AU4">
-        <v>0.69365845651164904</v>
+        <v>0.69338953354746302</v>
       </c>
       <c r="AV4">
-        <v>0.69338953354746302</v>
+        <v>0.69321255654258096</v>
       </c>
       <c r="AW4">
-        <v>0.69321255654258096</v>
-      </c>
-      <c r="AX4">
         <v>0.69326333308641896</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>79.226688909530594</v>
       </c>
@@ -2694,29 +3662,29 @@
       <c r="AP5">
         <v>1</v>
       </c>
+      <c r="AQ5">
+        <v>0.67670042851267498</v>
+      </c>
       <c r="AR5">
-        <v>0.67670042851267498</v>
+        <v>0.67421668191261697</v>
       </c>
       <c r="AS5">
-        <v>0.67421668191261697</v>
+        <v>0.67317965238968402</v>
       </c>
       <c r="AT5">
-        <v>0.67317965238968402</v>
+        <v>0.67067805834774497</v>
       </c>
       <c r="AU5">
-        <v>0.67067805834774497</v>
+        <v>0.67004296630276405</v>
       </c>
       <c r="AV5">
-        <v>0.67004296630276405</v>
+        <v>0.67004778496016604</v>
       </c>
       <c r="AW5">
-        <v>0.67004778496016604</v>
-      </c>
-      <c r="AX5">
         <v>0.67000366128060895</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>69.5004342079162</v>
       </c>
@@ -2834,29 +3802,29 @@
       <c r="AP6">
         <v>1</v>
       </c>
+      <c r="AQ6">
+        <v>0.67320700126800803</v>
+      </c>
       <c r="AR6">
-        <v>0.67320700126800803</v>
+        <v>0.671806917516656</v>
       </c>
       <c r="AS6">
-        <v>0.671806917516656</v>
+        <v>0.66997127554246605</v>
       </c>
       <c r="AT6">
-        <v>0.66997127554246605</v>
+        <v>0.66830120366849499</v>
       </c>
       <c r="AU6">
-        <v>0.66830120366849499</v>
+        <v>0.66784385831713</v>
       </c>
       <c r="AV6">
-        <v>0.66784385831713</v>
+        <v>0.66778356418895601</v>
       </c>
       <c r="AW6">
-        <v>0.66778356418895601</v>
-      </c>
-      <c r="AX6">
         <v>0.66780666740749794</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>71.147346210479697</v>
       </c>
@@ -2974,29 +3942,29 @@
       <c r="AP7">
         <v>1</v>
       </c>
+      <c r="AQ7">
+        <v>0.67261551966174005</v>
+      </c>
       <c r="AR7">
-        <v>0.67261551966174005</v>
+        <v>0.66976682475541005</v>
       </c>
       <c r="AS7">
-        <v>0.66976682475541005</v>
+        <v>0.668077975989124</v>
       </c>
       <c r="AT7">
-        <v>0.668077975989124</v>
+        <v>0.66720883999304603</v>
       </c>
       <c r="AU7">
-        <v>0.66720883999304603</v>
+        <v>0.66667889204182795</v>
       </c>
       <c r="AV7">
-        <v>0.66667889204182795</v>
+        <v>0.66672101456420096</v>
       </c>
       <c r="AW7">
-        <v>0.66672101456420096</v>
-      </c>
-      <c r="AX7">
         <v>0.66666841904036001</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>72.423466897010798</v>
       </c>
@@ -3114,29 +4082,29 @@
       <c r="AO8">
         <v>4</v>
       </c>
+      <c r="AQ8">
+        <v>0.67183937569864305</v>
+      </c>
       <c r="AR8">
-        <v>0.67183937569864305</v>
+        <v>0.67056253058313098</v>
       </c>
       <c r="AS8">
-        <v>0.67056253058313098</v>
+        <v>0.66873876098442697</v>
       </c>
       <c r="AT8">
-        <v>0.66873876098442697</v>
+        <v>0.66778887043878798</v>
       </c>
       <c r="AU8">
-        <v>0.66778887043878798</v>
+        <v>0.667392809847556</v>
       </c>
       <c r="AV8">
-        <v>0.667392809847556</v>
+        <v>0.66745455351858696</v>
       </c>
       <c r="AW8">
-        <v>0.66745455351858696</v>
-      </c>
-      <c r="AX8">
         <v>0.66728849625893005</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>75.023328995704603</v>
       </c>
@@ -3254,29 +4222,29 @@
       <c r="AP9">
         <v>1</v>
       </c>
+      <c r="AQ9">
+        <v>0.64878847452369504</v>
+      </c>
       <c r="AR9">
-        <v>0.64878847452369504</v>
+        <v>0.64787125672733503</v>
       </c>
       <c r="AS9">
-        <v>0.64787125672733503</v>
+        <v>0.645398503940391</v>
       </c>
       <c r="AT9">
-        <v>0.645398503940391</v>
+        <v>0.64291189290988804</v>
       </c>
       <c r="AU9">
-        <v>0.64291189290988804</v>
+        <v>0.64182850416321002</v>
       </c>
       <c r="AV9">
-        <v>0.64182850416321002</v>
+        <v>0.64135101979798204</v>
       </c>
       <c r="AW9">
-        <v>0.64135101979798204</v>
-      </c>
-      <c r="AX9">
         <v>0.64133832079202402</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>88.203471875190701</v>
       </c>
@@ -3394,26 +4362,26 @@
       <c r="AP10">
         <v>1</v>
       </c>
+      <c r="AQ10">
+        <v>0.63040107640959997</v>
+      </c>
       <c r="AR10">
-        <v>0.63040107640959997</v>
+        <v>0.62768417270219401</v>
       </c>
       <c r="AS10">
-        <v>0.62768417270219401</v>
+        <v>0.62600835965583401</v>
       </c>
       <c r="AT10">
-        <v>0.62600835965583401</v>
+        <v>0.62533381965856005</v>
       </c>
       <c r="AU10">
-        <v>0.62533381965856005</v>
+        <v>0.62530989068531295</v>
       </c>
       <c r="AV10">
-        <v>0.62530989068531295</v>
-      </c>
-      <c r="AW10">
         <v>0.62528760190314403</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>80.382316946983295</v>
       </c>
@@ -3531,29 +4499,29 @@
       <c r="AP11">
         <v>1</v>
       </c>
+      <c r="AQ11">
+        <v>0.62965837566696203</v>
+      </c>
       <c r="AR11">
-        <v>0.62965837566696203</v>
+        <v>0.62753178558759604</v>
       </c>
       <c r="AS11">
-        <v>0.62753178558759604</v>
+        <v>0.62881648249611799</v>
       </c>
       <c r="AT11">
-        <v>0.62881648249611799</v>
+        <v>0.627262420585041</v>
       </c>
       <c r="AU11">
-        <v>0.627262420585041</v>
+        <v>0.626697534121333</v>
       </c>
       <c r="AV11">
-        <v>0.626697534121333</v>
+        <v>0.62630741075337604</v>
       </c>
       <c r="AW11">
-        <v>0.62630741075337604</v>
-      </c>
-      <c r="AX11">
         <v>0.62628453118969796</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>90.369380831718402</v>
       </c>
@@ -3671,26 +4639,26 @@
       <c r="AN12">
         <v>2</v>
       </c>
+      <c r="AQ12">
+        <v>0.62811168579079102</v>
+      </c>
       <c r="AR12">
-        <v>0.62811168579079102</v>
+        <v>0.62567463274670099</v>
       </c>
       <c r="AS12">
-        <v>0.62567463274670099</v>
+        <v>0.62400601850626602</v>
       </c>
       <c r="AT12">
-        <v>0.62400601850626602</v>
+        <v>0.62361550700443402</v>
       </c>
       <c r="AU12">
-        <v>0.62361550700443402</v>
+        <v>0.62355796352609705</v>
       </c>
       <c r="AV12">
-        <v>0.62355796352609705</v>
-      </c>
-      <c r="AW12">
         <v>0.62355249587931205</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>85.829597377777105</v>
       </c>
@@ -3808,26 +4776,26 @@
       <c r="AP13">
         <v>1</v>
       </c>
+      <c r="AQ13">
+        <v>0.62163394863288002</v>
+      </c>
       <c r="AR13">
-        <v>0.62163394863288002</v>
+        <v>0.61914846671958101</v>
       </c>
       <c r="AS13">
-        <v>0.61914846671958101</v>
+        <v>0.61759975485732499</v>
       </c>
       <c r="AT13">
-        <v>0.61759975485732499</v>
+        <v>0.61704015565822901</v>
       </c>
       <c r="AU13">
-        <v>0.61704015565822901</v>
+        <v>0.61646927523526995</v>
       </c>
       <c r="AV13">
-        <v>0.61646927523526995</v>
-      </c>
-      <c r="AW13">
         <v>0.61655837056500795</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>91.011440491676296</v>
       </c>
@@ -3945,26 +4913,26 @@
       <c r="AP14">
         <v>1</v>
       </c>
+      <c r="AQ14">
+        <v>0.57820263194773802</v>
+      </c>
       <c r="AR14">
-        <v>0.57820263194773802</v>
+        <v>0.57727272860408696</v>
       </c>
       <c r="AS14">
-        <v>0.57727272860408696</v>
+        <v>0.57688254742113898</v>
       </c>
       <c r="AT14">
-        <v>0.57688254742113898</v>
+        <v>0.57652502054889498</v>
       </c>
       <c r="AU14">
-        <v>0.57652502054889498</v>
+        <v>0.57647448891142605</v>
       </c>
       <c r="AV14">
-        <v>0.57647448891142605</v>
-      </c>
-      <c r="AW14">
         <v>0.57659338084892198</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="Y16">
         <f t="shared" ref="Y16:AP16" si="0">AVERAGE(Y2:Y8)</f>
         <v>1.5</v>
@@ -4037,82 +5005,164 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="AQ16">
+        <f t="shared" ref="AQ16:AW16" si="1">AVERAGE(AQ2,AQ4:AQ9,AQ11)</f>
+        <v>0.67172990884083195</v>
+      </c>
+      <c r="AR16">
+        <f t="shared" si="1"/>
+        <v>0.6699596516840377</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="1"/>
+        <v>0.66850138542462878</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" si="1"/>
+        <v>0.66693301900680035</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="1"/>
+        <v>0.66634481637718346</v>
+      </c>
+      <c r="AV16">
+        <f t="shared" si="1"/>
+        <v>0.66616789553598854</v>
+      </c>
+      <c r="AW16">
+        <f t="shared" si="1"/>
+        <v>0.66614635898685404</v>
+      </c>
     </row>
-    <row r="18" spans="25:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="25:49" x14ac:dyDescent="0.25">
+      <c r="AQ17">
+        <f t="shared" ref="AQ17:AV17" si="2">AVERAGE(AQ3,AQ10,AQ12:AQ14)</f>
+        <v>0.63176348350420386</v>
+      </c>
+      <c r="AR17">
+        <f t="shared" si="2"/>
+        <v>0.62952983012311436</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="2"/>
+        <v>0.62816266221672734</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="2"/>
+        <v>0.62762953089917484</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="2"/>
+        <v>0.62742025710269478</v>
+      </c>
+      <c r="AV17">
+        <f t="shared" si="2"/>
+        <v>0.62745081168703143</v>
+      </c>
+    </row>
+    <row r="18" spans="25:49" x14ac:dyDescent="0.25">
       <c r="Y18">
-        <f t="shared" ref="Y18:AP18" si="1">SUM(Y2:Y14)</f>
+        <f t="shared" ref="Y18:AP18" si="3">SUM(Y2:Y14)</f>
         <v>17</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="AJ18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="AK18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="AM18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="AN18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="AP18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
+      <c r="AQ18">
+        <f t="shared" ref="AQ18:AW18" si="4">AVERAGE(AQ2:AQ14)</f>
+        <v>0.65635820678828283</v>
+      </c>
+      <c r="AR18">
+        <f t="shared" si="4"/>
+        <v>0.65440972031445177</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="4"/>
+        <v>0.65298649188312818</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="4"/>
+        <v>0.65181629281155984</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="4"/>
+        <v>0.65137383204084165</v>
+      </c>
+      <c r="AV18">
+        <f t="shared" si="4"/>
+        <v>0.65127670944023575</v>
+      </c>
+      <c r="AW18">
+        <f t="shared" si="4"/>
+        <v>0.66614635898685404</v>
+      </c>
     </row>
-    <row r="20" spans="25:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="25:49" x14ac:dyDescent="0.25">
       <c r="Z20" t="s">
         <v>38</v>
       </c>
@@ -4129,7 +5179,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="25:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="25:49" x14ac:dyDescent="0.25">
       <c r="Y21" t="s">
         <v>39</v>
       </c>
@@ -4143,7 +5193,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="25:43" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="25:49" ht="75" x14ac:dyDescent="0.25">
       <c r="AH23" s="1" t="s">
         <v>40</v>
       </c>

--- a/code/random_forest-outfiles/RFECV select 9 from 15 out of 18 - 120 estimators/RFECV select 9 from 15 out of 18 - 120 estimators.xlsx
+++ b/code/random_forest-outfiles/RFECV select 9 from 15 out of 18 - 120 estimators/RFECV select 9 from 15 out of 18 - 120 estimators.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Research-Spring2021\code\random_forest-outfiles\RFECV select 9 from 15 out of 18 - 120 estimators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C88324F-0676-42CA-823E-C6058A26A7DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68356C2F-08CB-4EDC-86D5-7DCA34C4B063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RFECV_RF_2021.04.21-15.58.40" sheetId="1" r:id="rId1"/>
@@ -114,39 +114,15 @@
     <t>['temp_F', 'PDSI', 'SP01', 'median_inc', 'GEOID', 'NPP_g_m-2', 'popuDensity_ALAND_km2', 'Rh_g_m-2', 'ALAND_ATOTAL_ratio', 'month']</t>
   </si>
   <si>
-    <t>['Rh_g_m-2', 'NPP_g_m-2', 'GEOID', 'month', 'ALAND_ATOTAL_ratio', 'temp_F', 'median_inc', 'pm25_ug_m-3', 'YYYYMM']</t>
-  </si>
-  <si>
-    <t>['PDSI', 'pm25_ug_m-3', 'median_inc', 'SP01', 'GEOID', 'temp_F', 'popuDensity_ALAND_km2', 'NPP_g_m-2', 'YYYYMM']</t>
-  </si>
-  <si>
     <t>['median_inc', 'PDSI', 'month', 'temp_F', 'GEOID', 'SP01', 'pm25_ug_m-3', 'NPP_g_m-2', 'popuDensity_ALAND_km2']</t>
   </si>
   <si>
     <t>['GEOID', 'NPP_g_m-2', 'popuDensity_ALAND_km2', 'pm25_ug_m-3', 'ALAND_ATOTAL_ratio', 'SP01', 'Rh_g_m-2', 'PDSI', 'month', 'median_inc']</t>
   </si>
   <si>
-    <t>['month', 'YYYYMM', 'temp_F', 'median_inc', 'pm25_ug_m-3', 'GEOID', 'popuDensity_ALAND_km2', 'Rh_g_m-2', 'NPP_g_m-2']</t>
-  </si>
-  <si>
-    <t>['popuDensity_ALAND_km2', 'month', 'temp_F', 'median_inc', 'YYYYMM', 'PDSI', 'GEOID', 'Rh_g_m-2', 'SP01']</t>
-  </si>
-  <si>
-    <t>['popuDensity_ALAND_km2', 'YYYYMM', 'SP01', 'GEOID', 'month', 'PDSI', 'pm25_ug_m-3', 'NPP_g_m-2', 'temp_F', 'ALAND_ATOTAL_ratio']</t>
-  </si>
-  <si>
     <t>['precip_in', 'PDSI', 'temp_F', 'median_inc', 'SP01', 'NPP_g_m-2', 'Rh_g_m-2', 'GEOID', 'ALAND_ATOTAL_ratio', 'popuDensity_ALAND_km2']</t>
   </si>
   <si>
-    <t>['SP01', 'NPP_g_m-2', 'pm25_ug_m-3', 'YYYYMM', 'median_inc', 'Rh_g_m-2', 'month', 'ALAND_ATOTAL_ratio', 'GEOID']</t>
-  </si>
-  <si>
-    <t>['pm25_ug_m-3', 'temp_F', 'month', 'YYYYMM', 'Rh_g_m-2', 'SP01', 'median_inc', 'ALAND_ATOTAL_ratio', 'GEOID']</t>
-  </si>
-  <si>
-    <t>['GEOID', 'median_inc', 'ALAND_ATOTAL_ratio', 'Rh_g_m-2', 'PDSI', 'YYYYMM', 'pm25_ug_m-3', 'SP01', 'temp_F']</t>
-  </si>
-  <si>
     <t>remove</t>
   </si>
   <si>
@@ -186,9 +162,6 @@
     <t>SP01</t>
   </si>
   <si>
-    <t>YYYYMM</t>
-  </si>
-  <si>
     <t>burned_frac</t>
   </si>
   <si>
@@ -211,6 +184,33 @@
   </si>
   <si>
     <t>temp_F</t>
+  </si>
+  <si>
+    <t>months_from_start</t>
+  </si>
+  <si>
+    <t>['popuDensity_ALAND_km2', 'month', 'temp_F', 'median_inc', 'months_from_start', 'PDSI', 'GEOID', 'Rh_g_m-2', 'SP01']</t>
+  </si>
+  <si>
+    <t>['popuDensity_ALAND_km2', 'months_from_start', 'SP01', 'GEOID', 'month', 'PDSI', 'pm25_ug_m-3', 'NPP_g_m-2', 'temp_F', 'ALAND_ATOTAL_ratio']</t>
+  </si>
+  <si>
+    <t>['month', 'months_from_start', 'temp_F', 'median_inc', 'pm25_ug_m-3', 'GEOID', 'popuDensity_ALAND_km2', 'Rh_g_m-2', 'NPP_g_m-2']</t>
+  </si>
+  <si>
+    <t>['PDSI', 'pm25_ug_m-3', 'median_inc', 'SP01', 'GEOID', 'temp_F', 'popuDensity_ALAND_km2', 'NPP_g_m-2', 'months_from_start']</t>
+  </si>
+  <si>
+    <t>['pm25_ug_m-3', 'temp_F', 'month', 'months_from_start', 'Rh_g_m-2', 'SP01', 'median_inc', 'ALAND_ATOTAL_ratio', 'GEOID']</t>
+  </si>
+  <si>
+    <t>['Rh_g_m-2', 'NPP_g_m-2', 'GEOID', 'month', 'ALAND_ATOTAL_ratio', 'temp_F', 'median_inc', 'pm25_ug_m-3', 'months_from_start']</t>
+  </si>
+  <si>
+    <t>['SP01', 'NPP_g_m-2', 'pm25_ug_m-3', 'months_from_start', 'median_inc', 'Rh_g_m-2', 'month', 'ALAND_ATOTAL_ratio', 'GEOID']</t>
+  </si>
+  <si>
+    <t>['GEOID', 'median_inc', 'ALAND_ATOTAL_ratio', 'Rh_g_m-2', 'PDSI', 'months_from_start', 'pm25_ug_m-3', 'SP01', 'temp_F']</t>
   </si>
 </sst>
 </file>
@@ -854,7 +854,7 @@
                   <c:v>SP01</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>YYYYMM</c:v>
+                  <c:v>months_from_start</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>burned_frac</c:v>
@@ -2597,15 +2597,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2968,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AQ14" sqref="AQ1:AW14"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3052,58 +3052,58 @@
         <v>23</v>
       </c>
       <c r="Y1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
         <v>42</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>50</v>
       </c>
       <c r="AH1" t="s">
         <v>51</v>
       </c>
       <c r="AI1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AJ1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="AP1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AQ1">
         <v>1</v>
@@ -3198,7 +3198,7 @@
         <v>9</v>
       </c>
       <c r="X2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -3338,7 +3338,7 @@
         <v>10</v>
       </c>
       <c r="X3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="Y3">
         <v>1</v>
@@ -3475,7 +3475,7 @@
         <v>9</v>
       </c>
       <c r="X4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="Z4">
         <v>6</v>
@@ -3615,7 +3615,7 @@
         <v>9</v>
       </c>
       <c r="X5" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="Y5">
         <v>3</v>
@@ -3755,7 +3755,7 @@
         <v>9</v>
       </c>
       <c r="X6" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -3895,7 +3895,7 @@
         <v>9</v>
       </c>
       <c r="X7" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="Y7">
         <v>1</v>
@@ -4035,7 +4035,7 @@
         <v>9</v>
       </c>
       <c r="X8" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="Y8">
         <v>1</v>
@@ -4175,7 +4175,7 @@
         <v>9</v>
       </c>
       <c r="X9" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="Y9">
         <v>1</v>
@@ -4452,7 +4452,7 @@
         <v>9</v>
       </c>
       <c r="X11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y11">
         <v>3</v>
@@ -4592,7 +4592,7 @@
         <v>10</v>
       </c>
       <c r="X12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y12">
         <v>1</v>
@@ -4866,7 +4866,7 @@
         <v>10</v>
       </c>
       <c r="X14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y14">
         <v>1</v>
@@ -5164,41 +5164,41 @@
     </row>
     <row r="20" spans="25:49" x14ac:dyDescent="0.25">
       <c r="Z20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AA20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AB20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AI20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AO20" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="25:49" x14ac:dyDescent="0.25">
       <c r="Y21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AD21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AL21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AN21" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="25:49" ht="75" x14ac:dyDescent="0.25">
       <c r="AH23" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AQ23" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
